--- a/pred_ohlcv/54_21/2020-01-12 XRP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-12 XRP ohlcv.xlsx
@@ -1276,7 +1276,7 @@
         <v>-1617827.94961706</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-1267539.37488589</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-1267539.37488589</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-1267539.37488589</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-1267539.37488589</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-1278917.27731099</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-1278917.27731099</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-1242378.98061099</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-1242378.98061099</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-1242079.19158146</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-1242079.19158146</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-1245597.96538146</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-1245597.96538146</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-1237918.48078146</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-368440.7556501904</v>
       </c>
       <c r="H295">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-364214.2129621104</v>
       </c>
       <c r="H296">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-364631.6739621104</v>
       </c>
       <c r="H297">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-360101.0948621104</v>
       </c>
       <c r="H299">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>2719338.543756899</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>2420949.019956899</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>2462649.9976569</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>2418939.996856899</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>2435668.2391569</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>2469464.8931569</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>2411133.0772569</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>2436820.4702569</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>2468644.89909231</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>2441259.69119231</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>2412593.32919231</v>
       </c>
       <c r="H387">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>2252195.87119231</v>
       </c>
       <c r="H388">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>2132728.68959231</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>2101301.64599231</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>2101301.64599231</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>2076002.46891823</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>2042247.9303128</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>3242212.76983866</v>
       </c>
       <c r="H478">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>3006204.407938661</v>
       </c>
       <c r="H479">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>2981968.902002551</v>
       </c>
       <c r="H486">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>2822509.675902551</v>
       </c>
       <c r="H487">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>2967996.369402551</v>
       </c>
       <c r="H488">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>2967996.369402551</v>
       </c>
       <c r="H489">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>3068180.700902381</v>
       </c>
       <c r="H490">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>2954067.82630238</v>
       </c>
       <c r="H491">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>3447080.843702381</v>
       </c>
       <c r="H492">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>3273511.192902381</v>
       </c>
       <c r="H493">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>3273511.192902381</v>
       </c>
       <c r="H494">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>3016176.14260238</v>
       </c>
       <c r="H495">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>2942583.54870238</v>
       </c>
       <c r="H496">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>2942583.54870238</v>
       </c>
       <c r="H497">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>2562397.74710238</v>
       </c>
       <c r="H498">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>2741047.62926932</v>
       </c>
       <c r="H499">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>2433329.39396932</v>
       </c>
       <c r="H500">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>2506659.65136932</v>
       </c>
       <c r="H501">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>2558193.90596932</v>
       </c>
       <c r="H502">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>2649520.719169321</v>
       </c>
       <c r="H503">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>2513546.29496932</v>
       </c>
       <c r="H504">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-12 XRP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-12 XRP ohlcv.xlsx
@@ -2550,7 +2550,7 @@
         <v>-1267539.37488589</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-1278917.27731099</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-1278917.27731099</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-1242378.98061099</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-1242378.98061099</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-1242079.19158146</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-1242079.19158146</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-1245597.96538146</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-1245597.96538146</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-1277710.78508146</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-1288627.97328146</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-1237918.48078146</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-1237918.48078146</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-1209009.03838146</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-1209009.03838146</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>2719338.543756899</v>
       </c>
       <c r="H377">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>2420949.019956899</v>
       </c>
       <c r="H378">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>2462649.9976569</v>
       </c>
       <c r="H379">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>2418939.996856899</v>
       </c>
       <c r="H380">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>2435668.2391569</v>
       </c>
       <c r="H381">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>2469464.8931569</v>
       </c>
       <c r="H382">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>2411133.0772569</v>
       </c>
       <c r="H383">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>2436820.4702569</v>
       </c>
       <c r="H384">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>2468644.89909231</v>
       </c>
       <c r="H385">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>2441259.69119231</v>
       </c>
       <c r="H386">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>2412593.32919231</v>
       </c>
       <c r="H387">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>2252195.87119231</v>
       </c>
       <c r="H388">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>2132728.68959231</v>
       </c>
       <c r="H389">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>2101301.64599231</v>
       </c>
       <c r="H390">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>2101301.64599231</v>
       </c>
       <c r="H391">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>2076002.46891823</v>
       </c>
       <c r="H401">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>2042247.9303128</v>
       </c>
       <c r="H402">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>3242212.76983866</v>
       </c>
       <c r="H478">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>3006204.407938661</v>
       </c>
       <c r="H479">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>3052832.033538661</v>
       </c>
       <c r="H480">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>2906265.592945511</v>
       </c>
       <c r="H482">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>2943749.072302551</v>
       </c>
       <c r="H484">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>2943749.072302551</v>
       </c>
       <c r="H485">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>2981968.902002551</v>
       </c>
       <c r="H486">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>2822509.675902551</v>
       </c>
       <c r="H487">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>2967996.369402551</v>
       </c>
       <c r="H488">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>2967996.369402551</v>
       </c>
       <c r="H489">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>3068180.700902381</v>
       </c>
       <c r="H490">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>2954067.82630238</v>
       </c>
       <c r="H491">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>3447080.843702381</v>
       </c>
       <c r="H492">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>3273511.192902381</v>
       </c>
       <c r="H493">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>3273511.192902381</v>
       </c>
       <c r="H494">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>3016176.14260238</v>
       </c>
       <c r="H495">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>2942583.54870238</v>
       </c>
       <c r="H496">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>2942583.54870238</v>
       </c>
       <c r="H497">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>2562397.74710238</v>
       </c>
       <c r="H498">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>2741047.62926932</v>
       </c>
       <c r="H499">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>2433329.39396932</v>
       </c>
       <c r="H500">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>2506659.65136932</v>
       </c>
       <c r="H501">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>2558193.90596932</v>
       </c>
       <c r="H502">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>2649520.719169321</v>
       </c>
       <c r="H503">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>2513546.29496932</v>
       </c>
       <c r="H504">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>2497364.15066932</v>
       </c>
       <c r="H505">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="506" spans="1:8">
